--- a/qasm_analysis_55_trap_transfer.xlsx
+++ b/qasm_analysis_55_trap_transfer.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8225978220396727</v>
+        <v>0.2760408939892198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8225978220396727</v>
+        <v>0.2760408939892198</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -502,10 +502,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9196473726347113</v>
+        <v>0.5424796504655186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9196473726347113</v>
+        <v>0.5424796504655186</v>
       </c>
       <c r="D3" t="n">
         <v>25</v>
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9500393645866535</v>
+        <v>0.7170038108021736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9500393645866535</v>
+        <v>0.7170038108021736</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7165227040343813</v>
+        <v>0.009443920072667887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7165227040343813</v>
+        <v>0.004353953684610743</v>
       </c>
       <c r="D5" t="n">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="E5" t="n">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F5" t="n">
         <v>271</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9888910438521609</v>
+        <v>0.9391719980261437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9888910438521609</v>
+        <v>0.9391719980261437</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.31945524592265</v>
+        <v>5.322173314725846e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.31945524592265</v>
+        <v>4.552711771745896e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>784</v>
+        <v>825</v>
       </c>
       <c r="E7" t="n">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="F7" t="n">
         <v>898</v>
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8064522503780085</v>
+        <v>0.1011464052136305</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8064522503780085</v>
+        <v>0.07995000285879053</v>
       </c>
       <c r="D8" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E8" t="n">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F8" t="n">
         <v>172</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6778674919227358</v>
+        <v>0.03507900269087773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6778674919227358</v>
+        <v>0.0329916560106028</v>
       </c>
       <c r="D9" t="n">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="E9" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F9" t="n">
         <v>306</v>
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8700660047281028</v>
+        <v>0.3970927852420561</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8700660047281028</v>
+        <v>0.3857449803705244</v>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
         <v>36</v>
@@ -692,7 +692,7 @@
         <v>128</v>
       </c>
       <c r="G10" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.163394515964672</v>
+        <v>4.020466781811809e-09</v>
       </c>
       <c r="C11" t="n">
-        <v>0.163394515964672</v>
+        <v>2.528190560195616e-09</v>
       </c>
       <c r="D11" t="n">
-        <v>1069</v>
+        <v>1099</v>
       </c>
       <c r="E11" t="n">
-        <v>1069</v>
+        <v>1051</v>
       </c>
       <c r="F11" t="n">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="G11" t="n">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="12">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7200033059411529</v>
+        <v>0.07952597316640113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7200033059411529</v>
+        <v>0.07952597316640113</v>
       </c>
       <c r="D12" t="n">
         <v>53</v>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8881015955851915</v>
+        <v>0.507471706605126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8881015955851915</v>
+        <v>0.5004452583181059</v>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E13" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F13" t="n">
         <v>92</v>
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9571884689245493</v>
+        <v>0.7688953153587761</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9571884689245493</v>
+        <v>0.7617814239549737</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
         <v>25</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.963410910342797</v>
+        <v>0.7894068617535623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.963410910342797</v>
+        <v>0.7868686898597245</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
@@ -817,7 +817,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9192232557156448</v>
+        <v>0.6266129947137067</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9192232557156448</v>
+        <v>0.6266129947137067</v>
       </c>
       <c r="D16" t="n">
         <v>62</v>
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9349559527393196</v>
+        <v>0.6448527714974646</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9349559527393196</v>
+        <v>0.6448527714974646</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>

--- a/qasm_analysis_55_trap_transfer.xlsx
+++ b/qasm_analysis_55_trap_transfer.xlsx
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009443920072667887</v>
+        <v>0.009443920072667891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004353953684610743</v>
+        <v>0.004285694231455655</v>
       </c>
       <c r="D5" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" t="n">
         <v>192</v>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.322173314725846e-05</v>
+        <v>5.658901510387511e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>4.552711771745896e-05</v>
+        <v>4.02702116170799e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>825</v>
+        <v>847</v>
       </c>
       <c r="E7" t="n">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="F7" t="n">
         <v>898</v>
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1011464052136305</v>
+        <v>0.1021858996297044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07995000285879053</v>
+        <v>0.07144515115937539</v>
       </c>
       <c r="D8" t="n">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E8" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" t="n">
         <v>172</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03507900269087773</v>
+        <v>0.03547247095417511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0329916560106028</v>
+        <v>0.03208437659567012</v>
       </c>
       <c r="D9" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E9" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F9" t="n">
         <v>306</v>
@@ -677,16 +677,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3970927852420561</v>
+        <v>0.4010494781974637</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3857449803705244</v>
+        <v>0.381939279255351</v>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" t="n">
         <v>128</v>
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.020466781811809e-09</v>
+        <v>3.699410536551183e-09</v>
       </c>
       <c r="C11" t="n">
-        <v>2.528190560195616e-09</v>
+        <v>2.330497946345709e-09</v>
       </c>
       <c r="D11" t="n">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="E11" t="n">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="F11" t="n">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="G11" t="n">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="12">
@@ -780,10 +780,10 @@
         <v>0.7688953153587761</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7617814239549737</v>
+        <v>0.7603665634490904</v>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
         <v>25</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7894068617535623</v>
+        <v>0.7894068617535624</v>
       </c>
       <c r="C15" t="n">
         <v>0.7868686898597245</v>

--- a/qasm_analysis_55_trap_transfer.xlsx
+++ b/qasm_analysis_55_trap_transfer.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2760408939892198</v>
+        <v>0.2933238827060871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2760408939892198</v>
+        <v>0.2933238827060871</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -502,10 +502,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5424796504655186</v>
+        <v>0.586170229238267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5424796504655186</v>
+        <v>0.586170229238267</v>
       </c>
       <c r="D3" t="n">
         <v>25</v>
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7170038108021736</v>
+        <v>0.7286494602544143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7170038108021736</v>
+        <v>0.7286494602544143</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009443920072667891</v>
+        <v>0.0433905709794368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004285694231455655</v>
+        <v>0.0433905709794368</v>
       </c>
       <c r="D5" t="n">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" t="n">
         <v>271</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9391719980261437</v>
+        <v>0.9432547317543618</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9391719980261437</v>
+        <v>0.9432547317543618</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.658901510387511e-05</v>
+        <v>0.0005065452317266613</v>
       </c>
       <c r="C7" t="n">
-        <v>4.02702116170799e-05</v>
+        <v>0.0005065452317266613</v>
       </c>
       <c r="D7" t="n">
-        <v>847</v>
+        <v>786</v>
       </c>
       <c r="E7" t="n">
         <v>786</v>
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1021858996297044</v>
+        <v>0.1721303739188967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07144515115937539</v>
+        <v>0.1721303739188967</v>
       </c>
       <c r="D8" t="n">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E8" t="n">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F8" t="n">
         <v>172</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03547247095417511</v>
+        <v>0.07243033620187289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03208437659567012</v>
+        <v>0.07243033620187289</v>
       </c>
       <c r="D9" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E9" t="n">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F9" t="n">
         <v>306</v>
@@ -677,19 +677,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4010494781974637</v>
+        <v>0.4341558216192389</v>
       </c>
       <c r="C10" t="n">
-        <v>0.381939279255351</v>
+        <v>0.4341558216192389</v>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G10" t="n">
         <v>124</v>
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.699410536551183e-09</v>
+        <v>6.129115011681582e-07</v>
       </c>
       <c r="C11" t="n">
-        <v>2.330497946345709e-09</v>
+        <v>6.129115011681582e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>1106</v>
+        <v>1088</v>
       </c>
       <c r="E11" t="n">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="F11" t="n">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="G11" t="n">
-        <v>1479</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="12">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07952597316640113</v>
+        <v>0.1104444481152851</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07952597316640113</v>
+        <v>0.1104444481152851</v>
       </c>
       <c r="D12" t="n">
         <v>53</v>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.507471706605126</v>
+        <v>0.5382430939996513</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5004452583181059</v>
+        <v>0.5382430939996513</v>
       </c>
       <c r="D13" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E13" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F13" t="n">
         <v>92</v>
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7688953153587761</v>
+        <v>0.7833230176515672</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7603665634490904</v>
+        <v>0.7833230176515672</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
         <v>36</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7894068617535624</v>
+        <v>0.8094692513399709</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7868686898597245</v>
+        <v>0.8094692513399709</v>
       </c>
       <c r="D15" t="n">
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="n">
         <v>31</v>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6266129947137067</v>
+        <v>0.6511559132080488</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6266129947137067</v>
+        <v>0.6511559132080488</v>
       </c>
       <c r="D16" t="n">
         <v>62</v>
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6448527714974646</v>
+        <v>0.6585833303580919</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6448527714974646</v>
+        <v>0.6585833303580919</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
